--- a/Data/aearep-352/candidatepackages.xlsx
+++ b/Data/aearep-352/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -31,12 +31,12 @@
     <t>ftools</t>
   </si>
   <si>
+    <t>coefplot</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -55,10 +55,13 @@
     <t>sutex</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>sq</t>
   </si>
   <si>
-    <t>title</t>
+    <t>poverty</t>
   </si>
   <si>
     <t>cluster</t>
@@ -73,21 +76,18 @@
     <t>white</t>
   </si>
   <si>
-    <t>poverty</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
     <t>overlay</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>addnotes</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
@@ -145,9 +145,6 @@
     <t>9-FigureA3-A4.do</t>
   </si>
   <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>0-dataset-construction-ACLED.do</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t>7-FigureA.8.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
 </sst>
 </file>
@@ -238,7 +232,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -274,7 +268,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -298,7 +292,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -310,7 +304,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -322,7 +316,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -334,7 +328,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -346,7 +340,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -358,7 +352,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -370,10 +364,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="C13">
-        <v>0.11803713440895081</v>
+        <v>0</v>
       </c>
       <c r="D13"/>
     </row>
@@ -382,10 +376,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>563</v>
+        <v>499</v>
       </c>
       <c r="C14">
-        <v>0.18667109310626984</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D14"/>
     </row>
@@ -394,10 +388,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="C15">
-        <v>0.18733422458171844</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D15"/>
     </row>
@@ -406,10 +400,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="C16">
-        <v>0.18766577541828156</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D16"/>
     </row>
@@ -418,10 +412,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="C17">
-        <v>0.20092837512493134</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D17"/>
     </row>
@@ -430,10 +424,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>694</v>
+        <v>632</v>
       </c>
       <c r="C18">
-        <v>0.23010610044002533</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D18"/>
     </row>
@@ -442,10 +436,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>745</v>
+        <v>706</v>
       </c>
       <c r="C19">
-        <v>0.24701590836048126</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D19"/>
     </row>
@@ -454,10 +448,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>811</v>
+        <v>712</v>
       </c>
       <c r="C20">
-        <v>0.26889920234680176</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D20"/>
     </row>
@@ -466,10 +460,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C21">
-        <v>0.32659152150154114</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D21"/>
     </row>
@@ -478,10 +472,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C22">
-        <v>0.36273208260536194</v>
+        <v>0.36264464259147644</v>
       </c>
       <c r="D22"/>
     </row>
@@ -490,10 +484,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C23">
-        <v>0.43501326441764832</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D23"/>
     </row>
@@ -502,10 +496,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1472</v>
+        <v>1385</v>
       </c>
       <c r="C24">
-        <v>0.48806366324424744</v>
+        <v>0.45785123109817505</v>
       </c>
       <c r="D24"/>
     </row>
@@ -514,10 +508,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1553</v>
+        <v>1428</v>
       </c>
       <c r="C25">
-        <v>0.51492041349411011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D25"/>
     </row>
@@ -526,10 +520,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1835</v>
+        <v>2030</v>
       </c>
       <c r="C26">
-        <v>0.60842174291610718</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D26"/>
     </row>
@@ -539,7 +533,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -632,7 +626,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -692,22 +686,6 @@
       </c>
       <c r="B19" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aearep-352/candidatepackages.xlsx
+++ b/Data/aearep-352/candidatepackages.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rschfs1x\userRS\K-Q\lr397_RS\Documents\AEA_workspace\FunPackageSearch\Statapackagesearch\Data\aearep-352\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C99D0D-E451-449C-920A-3840DBF77BF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Missing packages" sheetId="1" r:id="rId2"/>
-    <sheet name="Programs parsed" sheetId="2" r:id="rId4"/>
+    <sheet name="Missing packages" sheetId="1" r:id="rId1"/>
+    <sheet name="Programs parsed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -172,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -205,15 +212,325 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D26"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -227,7 +544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -237,9 +554,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -249,9 +568,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -261,9 +582,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4"/>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -273,9 +596,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5"/>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -285,9 +610,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6"/>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -297,9 +624,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7"/>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -309,9 +638,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8"/>
-    </row>
-    <row r="9">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -321,9 +652,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9"/>
-    </row>
-    <row r="10">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -333,9 +666,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10"/>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -345,9 +680,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -357,9 +694,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -369,9 +708,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -381,9 +722,11 @@
       <c r="C14">
         <v>0.16495867073535919</v>
       </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -393,9 +736,11 @@
       <c r="C15">
         <v>0.1735537201166153</v>
       </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -405,9 +750,11 @@
       <c r="C16">
         <v>0.17487603425979614</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -417,9 +764,11 @@
       <c r="C17">
         <v>0.18611569702625275</v>
       </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -429,9 +778,11 @@
       <c r="C18">
         <v>0.20892561972141266</v>
       </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -441,9 +792,11 @@
       <c r="C19">
         <v>0.23338842391967773</v>
       </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -453,9 +806,11 @@
       <c r="C20">
         <v>0.2353719025850296</v>
       </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -465,9 +820,11 @@
       <c r="C21">
         <v>0.32991734147071838</v>
       </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -477,9 +834,11 @@
       <c r="C22">
         <v>0.36264464259147644</v>
       </c>
-      <c r="D22"/>
-    </row>
-    <row r="23">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -489,9 +848,11 @@
       <c r="C23">
         <v>0.43173554539680481</v>
       </c>
-      <c r="D23"/>
-    </row>
-    <row r="24">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -501,9 +862,11 @@
       <c r="C24">
         <v>0.45785123109817505</v>
       </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -513,9 +876,11 @@
       <c r="C25">
         <v>0.47206610441207886</v>
       </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -525,18 +890,24 @@
       <c r="C26">
         <v>0.67107439041137695</v>
       </c>
-      <c r="D26"/>
+      <c r="D26">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -544,7 +915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -552,7 +923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -560,7 +931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -568,7 +939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -576,7 +947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -584,7 +955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -592,7 +963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -600,7 +971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -608,7 +979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -616,7 +987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -624,7 +995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -632,7 +1003,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -640,7 +1011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -648,7 +1019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -656,7 +1027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -664,7 +1035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -672,7 +1043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -680,7 +1051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -689,5 +1060,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>